--- a/data/Ecology_fish_edna_finished.xlsx
+++ b/data/Ecology_fish_edna_finished.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexaei/repos/edna_citizen/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D1C1D8-9AB2-5B42-98BF-155D0A727D7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B16080D1-3D1F-424E-8789-650DC61D0025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28120" windowHeight="17500" xr2:uid="{90A8056E-EA13-410F-913B-CB4369650CF1}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28100" windowHeight="17500" xr2:uid="{90A8056E-EA13-410F-913B-CB4369650CF1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -661,7 +661,7 @@
     <t>Ecotype</t>
   </si>
   <si>
-    <t>Reef_associated</t>
+    <t>Reef-associated</t>
   </si>
 </sst>
 </file>
@@ -1047,8 +1047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{241D1E3D-69C9-4003-91CF-84088B67B400}">
   <dimension ref="A1:J102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C88" zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
-      <selection activeCell="E101" sqref="E101"/>
+    <sheetView tabSelected="1" topLeftCell="B80" zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
+      <selection activeCell="E81" sqref="E81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
